--- a/public/import/user_template.xlsx
+++ b/public/import/user_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="65">
   <si>
     <t xml:space="preserve">nama_lengkap</t>
   </si>
@@ -43,31 +43,178 @@
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
+    <t xml:space="preserve">tm</t>
+  </si>
+  <si>
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">joko tes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jokotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pt.msi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jabo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jbo</t>
+    <t xml:space="preserve">RENDY SURYANDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rendy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT.MSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADEN FARID LESMANA</t>
   </si>
   <si>
     <t xml:space="preserve">complete123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRIANA SAPUTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andriana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUSNADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kusnadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcsw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcsw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSW4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcsw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSW5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcsw6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSW6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascswj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV.TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORAIMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcwo1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcwo2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcwo3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcwo4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsfcwo5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOSREY ANDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yosref</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRI SATRIA UTAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">andri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIO SUPRIYATNO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARDIANSYAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hardiansyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANUSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanusi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWO10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMA AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arlimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
   </si>
 </sst>
 </file>
@@ -77,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,6 +246,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,8 +297,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,25 +323,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.27"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -208,31 +367,559 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
